--- a/tubABM/output/Simulations.xlsx
+++ b/tubABM/output/Simulations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.romero\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A220C4-BBFE-43A7-B106-9D2A5C94CAA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3888A8D3-834C-49CB-AC85-CC4BC307443A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB9ABF6F-3D8E-42D3-951C-5800C565B73F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{CB9ABF6F-3D8E-42D3-951C-5800C565B73F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>Simulation Run</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Inmunodepression share(%)</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B3C097-F737-495E-8D24-224E80689A4D}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +431,7 @@
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,10 +442,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -452,11 +458,14 @@
       <c r="D3" s="1">
         <v>0.01</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -466,11 +475,14 @@
       <c r="D4" s="1">
         <v>0.5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -480,11 +492,14 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -494,11 +509,14 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -508,11 +526,14 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -522,11 +543,14 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -536,11 +560,14 @@
       <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -550,11 +577,14 @@
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -564,11 +594,14 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -578,11 +611,14 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -592,11 +628,14 @@
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -606,11 +645,14 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -620,7 +662,61 @@
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
